--- a/rules.xlsx
+++ b/rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\Popular\Lambdas\sync_rules_lambda\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sblancof\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC110FE4-0A6C-412E-A3A3-8C5DDE87C97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EE5400-4AE6-4850-954E-B78F0349EBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4815" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{21AE682E-4C8F-4292-9C8F-B40B308DB341}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{21AE682E-4C8F-4292-9C8F-B40B308DB341}"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="2" r:id="rId1"/>
@@ -32,87 +32,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={AEFE7088-0E91-4234-97D3-BD13398C1896}</author>
-    <author>tc={C5EF2825-1FCA-4392-8B65-2C8F3CC47F4D}</author>
-    <author>tc={FFCB752E-44F2-422E-9E1A-EC23C436C750}</author>
-  </authors>
-  <commentList>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{5E6E4E66-1336-4EA6-BFCB-8C5854592A8C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Según el estandar AVAL la estructura obligatoria para la respuesta:
-{
-  "MsgRsHdr": {
-    "Status": {
-      "StatusCode": "&lt;integer&gt;",
-      "Severity": "Info",
-      "StatusDesc": "&lt;string&gt;",
-      "AdditionalStatus": {
-        "StatusCode": "&lt;integer&gt;",
-        "StatusDesc": "&lt;string&gt;",
-        "ServerStatusCode": "&lt;integer&gt;",
-        "Severity": "Warning"
-      },
-      "ServerStatusCode": "&lt;integer&gt;",
-      "EndDt": "&lt;dateTime&gt;"
-    }
-  }
-}
-  </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C14" authorId="1" shapeId="0" xr:uid="{CA2416F1-9929-49C5-8EC6-E70DE178F6C0}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Los escenarios requeridos como insumo mínimo son:  Validación de estructura, estructuras correctas según condicionales del servicio.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="2" shapeId="0" xr:uid="{458342C1-CE42-4C2A-9DB6-AFD9D0DC94BB}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Los escenarios requeridos como insumo mínimo son:  Validación de estructura, estructuras correctas según condicionales del servicio.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,13 +302,112 @@
     <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="21">
     <dxf>
       <font>
         <strike/>
         <color theme="0" tint="-0.499984740745262"/>
         <name val="Cambria"/>
         <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Cambria"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Cambria"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Cambria"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -471,9 +489,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -511,7 +529,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -617,7 +635,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -759,7 +777,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -773,188 +791,214 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBF6345-24D7-4297-B079-BE485DF86473}">
-  <dimension ref="A2:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBF6345-24D7-4297-B079-BE485DF86473}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
+    <col min="6" max="6" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="2" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="18"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
       <c r="D16" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:C3 A5 A8 A10 A13 A16">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
-      <formula>$E3="R"</formula>
+  <conditionalFormatting sqref="A5 A8 A10 A13 A16">
+    <cfRule type="expression" dxfId="20" priority="14" stopIfTrue="1">
+      <formula>$E5="R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B16">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>$I4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C16">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>$J4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C14">
+    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+      <formula>$E5="R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:C16">
+    <cfRule type="expression" dxfId="16" priority="9" stopIfTrue="1">
+      <formula>$E15="R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C16">
+    <cfRule type="expression" dxfId="15" priority="12">
+      <formula>$I4=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D2 D4:D8">
     <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
-      <formula>$E5="R"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:C16">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
-      <formula>$E15="R"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C16">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>$I4=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8 D10:D14">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>$E3="R"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D16">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$E15="R"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F3">
+      <formula>$E1="R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D16">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+      <formula>$E10="R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:C1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>$E1="R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$I2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$J2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$I2=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:F1">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$E3="R"</formula>
+      <formula>$E1="R"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/rules.xlsx
+++ b/rules.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sblancof\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://everisgroup-my.sharepoint.com/personal/jramosde_emeal_nttdata_com/Documents/Popular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EE5400-4AE6-4850-954E-B78F0349EBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79C4E491-FB1E-48AF-8758-CEBE81D83377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{21AE682E-4C8F-4292-9C8F-B40B308DB341}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{21AE682E-4C8F-4292-9C8F-B40B308DB341}"/>
   </bookViews>
   <sheets>
-    <sheet name="Presentación" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Presentacion" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,60 +33,293 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={93117CF9-E6B8-4DF7-80C9-C795D48BDB1C}</author>
+    <author>tc={E178981A-DB37-40A0-9311-61F6DCAEE193}</author>
+    <author>tc={30BC57A2-1854-4E5C-9526-E7558C03E149}</author>
+    <author>tc={14A4F9CA-BAEE-4B0A-9E25-6432B26BFDD8}</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{93117CF9-E6B8-4DF7-80C9-C795D48BDB1C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    references
+Reply:
+    Si se necesita un archivo para cumplir el promt de la descripción</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="1" shapeId="0" xr:uid="{E178981A-DB37-40A0-9311-61F6DCAEE193}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    estructura
+semántica</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="2" shapeId="0" xr:uid="{30BC57A2-1854-4E5C-9526-E7558C03E149}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    alta
+media
+baja</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="3" shapeId="0" xr:uid="{14A4F9CA-BAEE-4B0A-9E25-6432B26BFDD8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Notas -textos adicionales</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+  <si>
+    <t>Documentacion</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Documento Especificacion</t>
+  </si>
+  <si>
+    <t>ALTA</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Documentacion</t>
-  </si>
-  <si>
     <t>Descripcion</t>
   </si>
   <si>
     <t>Artefacto</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Documento Especificacion</t>
-  </si>
-  <si>
-    <t>Presenta documento de especificacion por operacion</t>
-  </si>
-  <si>
-    <t>BP0P2</t>
-  </si>
-  <si>
     <t>Tipo</t>
   </si>
   <si>
     <t>Criticidad</t>
   </si>
   <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>En la ruta "Documentación/Especificación" debe existir un documento cuyo nombre comience con "BPOP2" por cada archivo ".yaml" en la ruta "YAML".</t>
+  </si>
+  <si>
     <t>SEMANTICA</t>
   </si>
   <si>
-    <t>ALTA</t>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>Documento Mecanismos</t>
+  </si>
+  <si>
+    <t>En la ruta "Documentación/Mecanismos" debe existir al menos un documento cuyo nombre comience con "BPOP3"</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Documento Diseño detallado</t>
+  </si>
+  <si>
+    <t>En la ruta "Documentación/Diseño detallado" deben existir documentos con formato:
+"BPOP9 - DiseñoDetallado [NOMBRE_CARPETA]". Donde [NOMBRE_CARPETA] debe coincidir exactamente con cada nombre de carpeta de primer nivel en "Guion/". El número total de documentos debe igualar el número total de carpetas en "Guion/".</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Documento Guion de Instalación</t>
+  </si>
+  <si>
+    <t>Dentro de cada carpeta hija en "Guion/" debe existir un documento con formato:
+"BPOP8 - Guion Instalacion [NOMBRE_CARPETA]". Donde [NOMBRE_CARPETA] debe coincidir exactamente con el nombre de la carpeta que lo contiene.</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Documento Reporte de pruebas</t>
+  </si>
+  <si>
+    <t>En la ruta "Pruebas/" debe haber un documento cuyo nombre comience con "BPOP4" por cada archivo ".yaml" en la ruta "YAML"</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>Archivo Configuración</t>
+  </si>
+  <si>
+    <t>En cada ruta "Guion/[NOMBRE_CARPETA]/Config" debe existir al menos un archivo con extensión .xml o .yaml, donde [NOMBRE_CARPETA] representa cada carpeta hija de primer nivel en "Guion/"</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Para cada carpeta hija en "Guion/[NOMBRE_CARPETA]":
+1. Localizar documento que comience con "BPOP8"
+2. Si en el ítem "2.3 Restauración Base de Datos" el valor es diferente a "N/A", debe existir un documento en "Guion/[NOMBRE_CARPETA]/DB"</t>
+  </si>
+  <si>
+    <t>Guion/[NOMBRE_CARPETA]/BPOP8*</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>Fuentes</t>
+  </si>
+  <si>
+    <t>Cada carpeta hija de primer nivel en "Guion/" debe tener una carpeta correspondiente con el mismo nombre en "Fuentes/"</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>En cada ruta "Guion/[NOMBRE_CARPETA]/MQ" debe existir al menos un archivo con extensión .mq, donde [NOMBRE_CARPETA] representa cada carpeta hija de primer nivel en "Guion/"</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>Contrato (WSLD, Swagger)</t>
+  </si>
+  <si>
+    <t>Debe haber al menos un archivo en la ruta Yaml/ con la extensión .yaml</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>Proyecto SOAP con los respectivos escenarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe haber al menos un archivo en la ruta Pruebas/ con la extensión .xml </t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>Proyecto Postman con los respectivos escenarios Rest</t>
+  </si>
+  <si>
+    <t>Debe haber al menos un archivo en la ruta Pruebas/ con la extensión .json</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>Tramas planas para mensajeria TCP</t>
+  </si>
+  <si>
+    <t>Debe haber al menos un archivo en la ruta Pruebas/ con la extensión .txt</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Documento Especificacion[Portada]</t>
+  </si>
+  <si>
+    <t>En la portada del documento debe aparecer el nombre del servicio y la fecha de creación en formato dd/mm/yyyy</t>
+  </si>
+  <si>
+    <t>Documentación/Especificación/BPOP2*</t>
+  </si>
+  <si>
+    <t>CONTENIDO</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Documento Especificacion[Control de Versiones]</t>
+  </si>
+  <si>
+    <t>El documento debe contener una tabla de control de versiones con cinco columnas: Versión, Tipo de cambio (C, M, A, E), Fecha, Descripción de cambios y Responsable del cambio</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Documento Especificacion[Cuadro informacion General]</t>
+  </si>
+  <si>
+    <t>En la sección "1.1 Información General" debe existir una tabla "Información Servicio" con dos columnas. La primera columna debe contener: Nombre Servicio, Nombre Técnico, Operaciones del Servicio, Dominio del Servicio, Proyecto, Consumidor (Frontend) y Proveedor (Backend). La segunda columna debe tener los valores correspondientes (no pueden estar vacíos)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,34 +337,17 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -142,7 +357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,202 +427,76 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="9">
     <dxf>
       <font>
         <strike/>
         <color theme="0" tint="-0.499984740745262"/>
         <name val="Cambria"/>
         <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Cambria"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Cambria"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Cambria"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -488,10 +577,16 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Juan Carlos Ramos Deantonio" id="{995F061D-B166-4F6A-B04F-8C43064EA2AC}" userId="S::jramosde@emeal.nttdata.com::9367b558-e604-40bd-ada1-cee4225ac6f5" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -529,7 +624,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -635,7 +730,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -777,228 +872,453 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D3" dT="2025-07-13T23:58:22.32" personId="{995F061D-B166-4F6A-B04F-8C43064EA2AC}" id="{93117CF9-E6B8-4DF7-80C9-C795D48BDB1C}">
+    <text>references</text>
+  </threadedComment>
+  <threadedComment ref="D3" dT="2025-07-14T00:01:56.74" personId="{995F061D-B166-4F6A-B04F-8C43064EA2AC}" id="{3128E337-26FB-484C-89D1-579A57B49A2B}" parentId="{93117CF9-E6B8-4DF7-80C9-C795D48BDB1C}">
+    <text>Si se necesita un archivo para cumplir el promt de la descripción</text>
+  </threadedComment>
+  <threadedComment ref="E3" dT="2025-07-13T23:57:44.86" personId="{995F061D-B166-4F6A-B04F-8C43064EA2AC}" id="{E178981A-DB37-40A0-9311-61F6DCAEE193}">
+    <text>estructura
+semántica</text>
+  </threadedComment>
+  <threadedComment ref="F3" dT="2025-07-13T23:58:05.93" personId="{995F061D-B166-4F6A-B04F-8C43064EA2AC}" id="{30BC57A2-1854-4E5C-9526-E7558C03E149}">
+    <text>alta
+media
+baja</text>
+  </threadedComment>
+  <threadedComment ref="G3" dT="2025-07-14T00:01:00.23" personId="{995F061D-B166-4F6A-B04F-8C43064EA2AC}" id="{14A4F9CA-BAEE-4B0A-9E25-6432B26BFDD8}">
+    <text>Notas -textos adicionales</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F5E9A4-1370-42BD-90B8-4DE2FA6C4967}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBF6345-24D7-4297-B079-BE485DF86473}">
+  <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBF6345-24D7-4297-B079-BE485DF86473}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.26953125" customWidth="1"/>
-    <col min="3" max="3" width="40.1796875" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" customWidth="1"/>
-    <col min="6" max="6" width="35.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="25" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="8"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5 A8 A10 A13 A16">
-    <cfRule type="expression" dxfId="20" priority="14" stopIfTrue="1">
-      <formula>$E5="R"</formula>
+  <conditionalFormatting sqref="A3:C3 A5 A8 A10 A13 A16">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+      <formula>$E3="R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B16">
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$I4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C16">
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$J4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C14">
-    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
       <formula>$E5="R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:C16">
-    <cfRule type="expression" dxfId="16" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>$E15="R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C16">
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>$I4=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D2 D4:D8">
-    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
-      <formula>$E1="R"</formula>
+  <conditionalFormatting sqref="D3:D8">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>$E3="R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D16">
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$E10="R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>$E1="R"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$J2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>$I2=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F1">
+  <conditionalFormatting sqref="E3:G3">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$E1="R"</formula>
+      <formula>$E3="R"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{3048dc87-43f0-4100-9acb-ae1971c79395}" enabled="0" method="" siteId="{3048dc87-43f0-4100-9acb-ae1971c79395}" removed="1"/>
+</clbl:labelList>
 </file>